--- a/Daily/Forecast/Non-Stationarity/Square Log-Price/keyence.xlsx
+++ b/Daily/Forecast/Non-Stationarity/Square Log-Price/keyence.xlsx
@@ -417,13 +417,13 @@
         <v>2584</v>
       </c>
       <c r="C2">
-        <v>124.77437354356</v>
+        <v>124.7745950699598</v>
       </c>
       <c r="D2">
-        <v>121.7885144049322</v>
+        <v>121.7886669274396</v>
       </c>
       <c r="E2">
-        <v>127.7602326821878</v>
+        <v>127.76052321248</v>
       </c>
       <c r="F2">
         <v>124.4905964141207</v>
@@ -437,13 +437,13 @@
         <v>2585</v>
       </c>
       <c r="C3">
-        <v>124.4973342385658</v>
+        <v>124.4895820760503</v>
       </c>
       <c r="D3">
-        <v>121.5120326993146</v>
+        <v>121.5042087506589</v>
       </c>
       <c r="E3">
-        <v>127.482635777817</v>
+        <v>127.4749554014417</v>
       </c>
       <c r="F3">
         <v>124.4044834200598</v>
@@ -457,13 +457,13 @@
         <v>2586</v>
       </c>
       <c r="C4">
-        <v>124.4061245770395</v>
+        <v>124.4036101060706</v>
       </c>
       <c r="D4">
-        <v>121.4213981364146</v>
+        <v>121.4188150335435</v>
       </c>
       <c r="E4">
-        <v>127.3908510176645</v>
+        <v>127.3884051785976</v>
       </c>
       <c r="F4">
         <v>124.4204531160902</v>
@@ -477,13 +477,13 @@
         <v>2587</v>
       </c>
       <c r="C5">
-        <v>124.4192403060576</v>
+        <v>124.4195801727478</v>
       </c>
       <c r="D5">
-        <v>121.4350906455155</v>
+        <v>121.4353619784046</v>
       </c>
       <c r="E5">
-        <v>127.4033899665997</v>
+        <v>127.403798367091</v>
       </c>
       <c r="F5">
         <v>124.0861204177977</v>
@@ -497,13 +497,13 @@
         <v>2588</v>
       </c>
       <c r="C6">
-        <v>124.0941500859371</v>
+        <v>124.0852397835737</v>
       </c>
       <c r="D6">
-        <v>121.1105493738842</v>
+        <v>121.1015703366518</v>
       </c>
       <c r="E6">
-        <v>127.0777507979901</v>
+        <v>127.0689092304956</v>
       </c>
       <c r="F6">
         <v>123.7963372832165</v>
@@ -517,13 +517,13 @@
         <v>2589</v>
       </c>
       <c r="C7">
-        <v>123.8033520647282</v>
+        <v>123.7954230358443</v>
       </c>
       <c r="D7">
-        <v>120.8203055132158</v>
+        <v>120.8123084093091</v>
       </c>
       <c r="E7">
-        <v>126.7863986162406</v>
+        <v>126.7785376623794</v>
       </c>
       <c r="F7">
         <v>123.7701203938449</v>
@@ -537,13 +537,13 @@
         <v>2590</v>
       </c>
       <c r="C8">
-        <v>123.770167049924</v>
+        <v>123.7692453075502</v>
       </c>
       <c r="D8">
-        <v>120.787696237765</v>
+        <v>120.7867072300088</v>
       </c>
       <c r="E8">
-        <v>126.7526378620829</v>
+        <v>126.7517833850916</v>
       </c>
       <c r="F8">
         <v>123.4732260938394</v>
@@ -557,13 +557,13 @@
         <v>2591</v>
       </c>
       <c r="C9">
-        <v>123.4802042622711</v>
+        <v>123.4723433769569</v>
       </c>
       <c r="D9">
-        <v>120.4982870662254</v>
+        <v>120.4903589385806</v>
       </c>
       <c r="E9">
-        <v>126.4621214583169</v>
+        <v>126.4543278153332</v>
       </c>
       <c r="F9">
         <v>124.0893569886214</v>
@@ -577,13 +577,13 @@
         <v>2592</v>
       </c>
       <c r="C10">
-        <v>124.0722355094111</v>
+        <v>124.0884768971115</v>
       </c>
       <c r="D10">
-        <v>121.0908014703953</v>
+        <v>121.1069732552527</v>
       </c>
       <c r="E10">
-        <v>127.0536695484269</v>
+        <v>127.0699805389703</v>
       </c>
       <c r="F10">
         <v>123.9855738249678</v>
@@ -597,13 +597,13 @@
         <v>2593</v>
       </c>
       <c r="C11">
-        <v>123.9870750721786</v>
+        <v>123.9846976228674</v>
       </c>
       <c r="D11">
-        <v>121.0062141330231</v>
+        <v>121.0037663807748</v>
       </c>
       <c r="E11">
-        <v>126.9679360113341</v>
+        <v>126.96562886496</v>
       </c>
       <c r="F11">
         <v>123.7668413050904</v>
@@ -617,13 +617,13 @@
         <v>2594</v>
       </c>
       <c r="C12">
-        <v>123.7719231849875</v>
+        <v>123.765959638554</v>
       </c>
       <c r="D12">
-        <v>120.7916247316997</v>
+        <v>120.7855911051095</v>
       </c>
       <c r="E12">
-        <v>126.7522216382754</v>
+        <v>126.7463281719984</v>
       </c>
       <c r="F12">
         <v>124.3405003499586</v>
@@ -637,13 +637,13 @@
         <v>2595</v>
       </c>
       <c r="C13">
-        <v>124.3242273528454</v>
+        <v>124.3396227759228</v>
       </c>
       <c r="D13">
-        <v>121.3444230508669</v>
+        <v>121.3597467148325</v>
       </c>
       <c r="E13">
-        <v>127.3040316548238</v>
+        <v>127.3194988370131</v>
       </c>
       <c r="F13">
         <v>123.9693178698518</v>
@@ -657,13 +657,13 @@
         <v>2596</v>
       </c>
       <c r="C14">
-        <v>123.9782971988695</v>
+        <v>123.9684373908039</v>
       </c>
       <c r="D14">
-        <v>120.9990352147242</v>
+        <v>120.9891011580334</v>
       </c>
       <c r="E14">
-        <v>126.9575591830148</v>
+        <v>126.9477736235744</v>
       </c>
       <c r="F14">
         <v>123.9497964554538</v>
@@ -677,13 +677,13 @@
         <v>2597</v>
       </c>
       <c r="C15">
-        <v>123.9497591812899</v>
+        <v>123.9489136824145</v>
       </c>
       <c r="D15">
-        <v>120.9710709796623</v>
+        <v>120.9701509821239</v>
       </c>
       <c r="E15">
-        <v>126.9284473829174</v>
+        <v>126.9276763827051</v>
       </c>
       <c r="F15">
         <v>123.4964477130655</v>
@@ -697,13 +697,13 @@
         <v>2598</v>
       </c>
       <c r="C16">
-        <v>123.508136095069</v>
+        <v>123.4954215193872</v>
       </c>
       <c r="D16">
-        <v>120.5299700952099</v>
+        <v>120.5171784746851</v>
       </c>
       <c r="E16">
-        <v>126.4863020949282</v>
+        <v>126.4736645640892</v>
       </c>
       <c r="F16">
         <v>123.1424185329739</v>
@@ -717,13 +717,13 @@
         <v>2599</v>
       </c>
       <c r="C17">
-        <v>123.1515281998839</v>
+        <v>123.1415353598981</v>
       </c>
       <c r="D17">
-        <v>120.1739019672718</v>
+        <v>120.163837113395</v>
       </c>
       <c r="E17">
-        <v>126.1291544324959</v>
+        <v>126.1192336064012</v>
       </c>
       <c r="F17">
         <v>122.9465076009651</v>
@@ -737,13 +737,13 @@
         <v>2600</v>
       </c>
       <c r="C18">
-        <v>122.95120692514</v>
+        <v>122.9455678971862</v>
       </c>
       <c r="D18">
-        <v>119.9741428904125</v>
+        <v>119.9684317861906</v>
       </c>
       <c r="E18">
-        <v>125.9282709598675</v>
+        <v>125.9227040081817</v>
       </c>
       <c r="F18">
         <v>123.081786860003</v>
@@ -757,13 +757,13 @@
         <v>2601</v>
       </c>
       <c r="C19">
-        <v>123.0774259444929</v>
+        <v>123.0809071700697</v>
       </c>
       <c r="D19">
-        <v>120.1009300766046</v>
+        <v>120.104339994259</v>
       </c>
       <c r="E19">
-        <v>126.0539218123812</v>
+        <v>126.0574743458804</v>
       </c>
       <c r="F19">
         <v>122.932938295148</v>
@@ -777,13 +777,13 @@
         <v>2602</v>
       </c>
       <c r="C20">
-        <v>122.9360254193641</v>
+        <v>122.9320607951569</v>
       </c>
       <c r="D20">
-        <v>119.9600963657545</v>
+        <v>119.9560602416865</v>
       </c>
       <c r="E20">
-        <v>125.9119544729736</v>
+        <v>125.9080613486273</v>
       </c>
       <c r="F20">
         <v>123.3534505446787</v>
@@ -797,13 +797,13 @@
         <v>2603</v>
       </c>
       <c r="C21">
-        <v>123.341242620181</v>
+        <v>123.3525575892711</v>
       </c>
       <c r="D21">
-        <v>120.3658420370883</v>
+        <v>120.3770844603465</v>
       </c>
       <c r="E21">
-        <v>126.3166432032737</v>
+        <v>126.3280307181956</v>
       </c>
       <c r="F21">
         <v>123.3867805135544</v>
@@ -817,13 +817,13 @@
         <v>2604</v>
       </c>
       <c r="C22">
-        <v>123.3847139140618</v>
+        <v>123.3859026645208</v>
       </c>
       <c r="D22">
-        <v>120.4098842673533</v>
+        <v>120.4110009245924</v>
       </c>
       <c r="E22">
-        <v>126.3595435607702</v>
+        <v>126.3608044044492</v>
       </c>
       <c r="F22">
         <v>123.6583838670485</v>
@@ -837,13 +837,13 @@
         <v>2605</v>
       </c>
       <c r="C23">
-        <v>123.6501242984428</v>
+        <v>123.6575044976956</v>
       </c>
       <c r="D23">
-        <v>120.6758471471589</v>
+        <v>120.6831554131069</v>
       </c>
       <c r="E23">
-        <v>126.6244014497267</v>
+        <v>126.6318535822842</v>
       </c>
       <c r="F23">
         <v>123.8192540240305</v>
@@ -857,13 +857,13 @@
         <v>2606</v>
       </c>
       <c r="C24">
-        <v>123.8138544136829</v>
+        <v>123.8183514410891</v>
       </c>
       <c r="D24">
-        <v>120.8401409803983</v>
+        <v>120.8445661694957</v>
       </c>
       <c r="E24">
-        <v>126.7875678469676</v>
+        <v>126.7921367126826</v>
       </c>
       <c r="F24">
         <v>123.3267537652751</v>
@@ -877,13 +877,13 @@
         <v>2607</v>
       </c>
       <c r="C25">
-        <v>123.3391850002336</v>
+        <v>123.3258748664931</v>
       </c>
       <c r="D25">
-        <v>120.3659812625068</v>
+        <v>120.3526004976455</v>
       </c>
       <c r="E25">
-        <v>126.3123887379603</v>
+        <v>126.2991492353406</v>
       </c>
       <c r="F25">
         <v>123.2498374618657</v>
@@ -897,13 +897,13 @@
         <v>2608</v>
       </c>
       <c r="C26">
-        <v>123.2514363405314</v>
+        <v>123.2489630645539</v>
       </c>
       <c r="D26">
-        <v>120.2788024878528</v>
+        <v>120.2762574237783</v>
       </c>
       <c r="E26">
-        <v>126.2240701932099</v>
+        <v>126.2216687053295</v>
       </c>
       <c r="F26">
         <v>123.3767863000302</v>
@@ -917,13 +917,13 @@
         <v>2609</v>
       </c>
       <c r="C27">
-        <v>123.3725481037206</v>
+        <v>123.37590855709</v>
       </c>
       <c r="D27">
-        <v>120.4004800546912</v>
+        <v>120.4037685785294</v>
       </c>
       <c r="E27">
-        <v>126.3446161527501</v>
+        <v>126.3480485356505</v>
       </c>
       <c r="F27">
         <v>123.2297324048202</v>
@@ -937,13 +937,13 @@
         <v>2610</v>
       </c>
       <c r="C28">
-        <v>123.2327885363354</v>
+        <v>123.2288578721265</v>
       </c>
       <c r="D28">
-        <v>120.261284762245</v>
+        <v>120.2572820734483</v>
       </c>
       <c r="E28">
-        <v>126.2042923104259</v>
+        <v>126.2004336708046</v>
       </c>
       <c r="F28">
         <v>123.2431376166367</v>
@@ -957,13 +957,13 @@
         <v>2611</v>
       </c>
       <c r="C29">
-        <v>123.2420220168872</v>
+        <v>123.2422642847822</v>
       </c>
       <c r="D29">
-        <v>120.2710872958449</v>
+        <v>120.2712575644603</v>
       </c>
       <c r="E29">
-        <v>126.2129567379296</v>
+        <v>126.2132710051041</v>
       </c>
       <c r="F29">
         <v>123.3367684795458</v>
@@ -977,13 +977,13 @@
         <v>2612</v>
       </c>
       <c r="C30">
-        <v>123.333331640349</v>
+        <v>123.3358861770652</v>
       </c>
       <c r="D30">
-        <v>120.3629629448811</v>
+        <v>120.3654458623477</v>
       </c>
       <c r="E30">
-        <v>126.3037003358169</v>
+        <v>126.3063264917827</v>
       </c>
       <c r="F30">
         <v>123.3767863000302</v>
@@ -997,13 +997,13 @@
         <v>2613</v>
       </c>
       <c r="C31">
-        <v>123.3747795747529</v>
+        <v>123.3759129701322</v>
       </c>
       <c r="D31">
-        <v>120.4049795772181</v>
+        <v>120.4060408711662</v>
       </c>
       <c r="E31">
-        <v>126.3445795722878</v>
+        <v>126.3457850690983</v>
       </c>
       <c r="F31">
         <v>122.3873429557931</v>
@@ -1017,13 +1017,13 @@
         <v>2614</v>
       </c>
       <c r="C32">
-        <v>122.4135135073754</v>
+        <v>122.3864619041518</v>
       </c>
       <c r="D32">
-        <v>119.4440401124202</v>
+        <v>119.4169158154932</v>
       </c>
       <c r="E32">
-        <v>125.3829869023305</v>
+        <v>125.3560079928104</v>
       </c>
       <c r="F32">
         <v>121.597322656406</v>
@@ -1037,13 +1037,13 @@
         <v>2615</v>
       </c>
       <c r="C33">
-        <v>121.6170760824806</v>
+        <v>121.5964420489224</v>
       </c>
       <c r="D33">
-        <v>118.6480059361971</v>
+        <v>118.6273096438808</v>
       </c>
       <c r="E33">
-        <v>124.5861462287641</v>
+        <v>124.5655744539641</v>
       </c>
       <c r="F33">
         <v>121.7830242894164</v>
@@ -1057,13 +1057,13 @@
         <v>2616</v>
       </c>
       <c r="C34">
-        <v>121.7779395007508</v>
+        <v>121.7820117564375</v>
       </c>
       <c r="D34">
-        <v>118.8094300965349</v>
+        <v>118.8134358296236</v>
       </c>
       <c r="E34">
-        <v>124.7464489049666</v>
+        <v>124.7505876832514</v>
       </c>
       <c r="F34">
         <v>121.6903511425204</v>
@@ -1077,13 +1077,13 @@
         <v>2617</v>
       </c>
       <c r="C35">
-        <v>121.6917655285374</v>
+        <v>121.6894665398892</v>
       </c>
       <c r="D35">
-        <v>118.723821464117</v>
+        <v>118.7214581525453</v>
       </c>
       <c r="E35">
-        <v>124.6597095929578</v>
+        <v>124.6574749272331</v>
       </c>
       <c r="F35">
         <v>121.60449137425</v>
@@ -1097,13 +1097,13 @@
         <v>2618</v>
       </c>
       <c r="C36">
-        <v>121.6058922146202</v>
+        <v>121.6036116474925</v>
       </c>
       <c r="D36">
-        <v>118.6385130724667</v>
+        <v>118.6361684550518</v>
       </c>
       <c r="E36">
-        <v>124.5732713567738</v>
+        <v>124.5710548399332</v>
       </c>
       <c r="F36">
         <v>121.3993477745504</v>
@@ -1117,13 +1117,13 @@
         <v>2619</v>
       </c>
       <c r="C37">
-        <v>121.4037999470795</v>
+        <v>121.3984649170496</v>
       </c>
       <c r="D37">
-        <v>118.4369768200924</v>
+        <v>118.431577900812</v>
       </c>
       <c r="E37">
-        <v>124.3706230740666</v>
+        <v>124.3653519332872</v>
       </c>
       <c r="F37">
         <v>121.2070296411761</v>
@@ -1137,13 +1137,13 @@
         <v>2620</v>
       </c>
       <c r="C38">
-        <v>121.2112120643335</v>
+        <v>121.2061355791416</v>
       </c>
       <c r="D38">
-        <v>118.2449456176182</v>
+        <v>118.2398055251678</v>
       </c>
       <c r="E38">
-        <v>124.1774785110487</v>
+        <v>124.1724656331154</v>
       </c>
       <c r="F38">
         <v>121.0462009158263</v>
@@ -1157,13 +1157,13 @@
         <v>2621</v>
       </c>
       <c r="C39">
-        <v>121.0495583411468</v>
+        <v>121.0453123225596</v>
       </c>
       <c r="D39">
-        <v>118.0838510559831</v>
+        <v>118.0795419587628</v>
       </c>
       <c r="E39">
-        <v>124.0152656263105</v>
+        <v>124.0110826863564</v>
       </c>
       <c r="F39">
         <v>121.2215976036177</v>
@@ -1177,13 +1177,13 @@
         <v>2622</v>
       </c>
       <c r="C40">
-        <v>121.2163758086213</v>
+        <v>121.2207178185579</v>
       </c>
       <c r="D40">
-        <v>118.2512268197861</v>
+        <v>118.2555055735795</v>
       </c>
       <c r="E40">
-        <v>124.1815247974565</v>
+        <v>124.1859300635363</v>
       </c>
       <c r="F40">
         <v>120.8473483002866</v>
@@ -1197,13 +1197,13 @@
         <v>2623</v>
       </c>
       <c r="C41">
-        <v>120.8559772540111</v>
+        <v>120.8464609367578</v>
       </c>
       <c r="D41">
-        <v>117.8913598683304</v>
+        <v>117.8817793549071</v>
       </c>
       <c r="E41">
-        <v>123.8205946396918</v>
+        <v>123.8111425186084</v>
       </c>
       <c r="F41">
         <v>120.9690634189233</v>
@@ -1217,13 +1217,13 @@
         <v>2624</v>
       </c>
       <c r="C42">
-        <v>120.9653168994858</v>
+        <v>120.9681774874295</v>
       </c>
       <c r="D42">
-        <v>118.0012613371707</v>
+        <v>118.0040572067473</v>
       </c>
       <c r="E42">
-        <v>123.9293724618009</v>
+        <v>123.9322977681118</v>
       </c>
       <c r="F42">
         <v>120.8362528604726</v>
@@ -1237,13 +1237,13 @@
         <v>2625</v>
       </c>
       <c r="C43">
-        <v>120.8387418938155</v>
+        <v>120.8353586083759</v>
       </c>
       <c r="D43">
-        <v>117.8752468018993</v>
+        <v>117.8717985071988</v>
       </c>
       <c r="E43">
-        <v>123.8022369857316</v>
+        <v>123.7989187095529</v>
       </c>
       <c r="F43">
         <v>120.8399519060113</v>
@@ -1257,13 +1257,13 @@
         <v>2626</v>
       </c>
       <c r="C44">
-        <v>120.8390793971903</v>
+        <v>120.8390288241837</v>
       </c>
       <c r="D44">
-        <v>117.8761485313703</v>
+        <v>117.8760325126337</v>
       </c>
       <c r="E44">
-        <v>123.8020102630103</v>
+        <v>123.8020251357338</v>
       </c>
       <c r="F44">
         <v>121.0021524573108</v>
@@ -1277,13 +1277,13 @@
         <v>2627</v>
       </c>
       <c r="C45">
-        <v>120.9971129579784</v>
+        <v>121.0012477680239</v>
       </c>
       <c r="D45">
-        <v>118.0347396773184</v>
+        <v>118.0388092565506</v>
       </c>
       <c r="E45">
-        <v>123.9594862386384</v>
+        <v>123.9636862794971</v>
       </c>
       <c r="F45">
         <v>120.7547303794071</v>
@@ -1297,13 +1297,13 @@
         <v>2628</v>
       </c>
       <c r="C46">
-        <v>120.760119753074</v>
+        <v>120.7538505056069</v>
       </c>
       <c r="D46">
-        <v>117.7982947163186</v>
+        <v>117.7919611039768</v>
       </c>
       <c r="E46">
-        <v>123.7219447898295</v>
+        <v>123.715739907237</v>
       </c>
       <c r="F46">
         <v>121.0205157254931</v>
@@ -1317,13 +1317,13 @@
         <v>2629</v>
       </c>
       <c r="C47">
-        <v>121.0129025004833</v>
+        <v>121.0196225321201</v>
       </c>
       <c r="D47">
-        <v>118.0516250422881</v>
+        <v>118.0582787403461</v>
       </c>
       <c r="E47">
-        <v>123.9741799586785</v>
+        <v>123.9809663238942</v>
       </c>
       <c r="F47">
         <v>121.4571074020208</v>
@@ -1337,13 +1337,13 @@
         <v>2630</v>
       </c>
       <c r="C48">
-        <v>121.4448352433399</v>
+        <v>121.4562277717094</v>
       </c>
       <c r="D48">
-        <v>118.4840722358272</v>
+        <v>118.4954001283016</v>
       </c>
       <c r="E48">
-        <v>124.4055982508526</v>
+        <v>124.4170554151173</v>
       </c>
       <c r="F48">
         <v>121.6009072801837</v>
@@ -1357,13 +1357,13 @@
         <v>2631</v>
       </c>
       <c r="C49">
-        <v>121.5960811815709</v>
+        <v>121.5999048113904</v>
       </c>
       <c r="D49">
-        <v>118.6358748642701</v>
+        <v>118.6396324596403</v>
       </c>
       <c r="E49">
-        <v>124.5562874988717</v>
+        <v>124.5601771631404</v>
       </c>
       <c r="F49">
         <v>121.1888073565775</v>
@@ -1377,13 +1377,13 @@
         <v>2632</v>
       </c>
       <c r="C50">
-        <v>121.1984629254425</v>
+        <v>121.1879240369134</v>
       </c>
       <c r="D50">
-        <v>118.2387780936006</v>
+        <v>118.2281745804345</v>
       </c>
       <c r="E50">
-        <v>124.1581477572844</v>
+        <v>124.1476734933923</v>
       </c>
       <c r="F50">
         <v>121.6367244107954</v>
@@ -1397,13 +1397,13 @@
         <v>2633</v>
       </c>
       <c r="C51">
-        <v>121.6244123360361</v>
+        <v>121.6358353621142</v>
       </c>
       <c r="D51">
-        <v>118.6652423207304</v>
+        <v>118.6765983070359</v>
       </c>
       <c r="E51">
-        <v>124.5835823513418</v>
+        <v>124.5950724171926</v>
       </c>
       <c r="F51">
         <v>121.3088218618744</v>
@@ -1417,13 +1417,13 @@
         <v>2634</v>
       </c>
       <c r="C52">
-        <v>121.3163438094817</v>
+        <v>121.3079442139274</v>
       </c>
       <c r="D52">
-        <v>118.3577106735317</v>
+        <v>118.3492427603672</v>
       </c>
       <c r="E52">
-        <v>124.2749769454317</v>
+        <v>124.2666456674877</v>
       </c>
       <c r="F52">
         <v>121.4246345494246</v>
@@ -1437,13 +1437,13 @@
         <v>2635</v>
       </c>
       <c r="C53">
-        <v>121.4209216871033</v>
+        <v>121.4237490375337</v>
       </c>
       <c r="D53">
-        <v>118.4628474840497</v>
+        <v>118.4656055745708</v>
       </c>
       <c r="E53">
-        <v>124.378995890157</v>
+        <v>124.3818925004966</v>
       </c>
       <c r="F53">
         <v>121.2361568088943</v>
@@ -1457,13 +1457,13 @@
         <v>2636</v>
       </c>
       <c r="C54">
-        <v>121.2402525923301</v>
+        <v>121.2352794265936</v>
       </c>
       <c r="D54">
-        <v>118.2827310550914</v>
+        <v>118.2776885764122</v>
       </c>
       <c r="E54">
-        <v>124.1977741295688</v>
+        <v>124.1928702767751</v>
       </c>
       <c r="F54">
         <v>121.2652489919095</v>
@@ -1477,13 +1477,13 @@
         <v>2637</v>
       </c>
       <c r="C55">
-        <v>121.2637517575206</v>
+        <v>121.2643719920282</v>
       </c>
       <c r="D55">
-        <v>118.3067909418438</v>
+        <v>118.307341771803</v>
       </c>
       <c r="E55">
-        <v>124.2207125731974</v>
+        <v>124.2214022122534</v>
       </c>
       <c r="F55">
         <v>121.1230933599073</v>
@@ -1497,13 +1497,13 @@
         <v>2638</v>
       </c>
       <c r="C56">
-        <v>121.1260177035769</v>
+        <v>121.1222040965092</v>
       </c>
       <c r="D56">
-        <v>118.1696125043721</v>
+        <v>118.165729236203</v>
       </c>
       <c r="E56">
-        <v>124.0824229027816</v>
+        <v>124.0786789568154</v>
       </c>
       <c r="F56">
         <v>121.2288783002139</v>
@@ -1517,13 +1517,13 @@
         <v>2639</v>
       </c>
       <c r="C57">
-        <v>121.2252993393746</v>
+        <v>121.2279982558274</v>
       </c>
       <c r="D57">
-        <v>118.2694517499939</v>
+        <v>118.272080982298</v>
       </c>
       <c r="E57">
-        <v>124.1811469287552</v>
+        <v>124.1839155293569</v>
       </c>
       <c r="F57">
         <v>121.3088218618744</v>
@@ -1537,13 +1537,13 @@
         <v>2640</v>
       </c>
       <c r="C58">
-        <v>121.3057619371189</v>
+        <v>121.3079396045091</v>
       </c>
       <c r="D58">
-        <v>118.3504725236382</v>
+        <v>118.3525805783367</v>
       </c>
       <c r="E58">
-        <v>124.2610513505996</v>
+        <v>124.2632986306815</v>
       </c>
       <c r="F58">
         <v>121.0094994367154</v>
@@ -1557,13 +1557,13 @@
         <v>2641</v>
       </c>
       <c r="C59">
-        <v>121.0166012543969</v>
+        <v>121.0086227375581</v>
       </c>
       <c r="D59">
-        <v>118.0618497406972</v>
+        <v>118.0538014189051</v>
       </c>
       <c r="E59">
-        <v>123.9713527680966</v>
+        <v>123.963444056211</v>
       </c>
       <c r="F59">
         <v>120.6692074037981</v>
@@ -1577,13 +1577,13 @@
         <v>2642</v>
       </c>
       <c r="C60">
-        <v>120.6775793219836</v>
+        <v>120.6682958843041</v>
       </c>
       <c r="D60">
-        <v>117.7233572003214</v>
+        <v>117.7140047861866</v>
       </c>
       <c r="E60">
-        <v>123.6318014436459</v>
+        <v>123.6225869824215</v>
       </c>
       <c r="F60">
         <v>120.1077096672695</v>
@@ -1597,13 +1597,13 @@
         <v>2643</v>
       </c>
       <c r="C61">
-        <v>120.121687077443</v>
+        <v>120.106829519194</v>
       </c>
       <c r="D61">
-        <v>117.1679439861066</v>
+        <v>117.153020535613</v>
       </c>
       <c r="E61">
-        <v>123.0754301687794</v>
+        <v>123.0606385027749</v>
       </c>
       <c r="F61">
         <v>120.3580392155608</v>
@@ -1617,13 +1617,13 @@
         <v>2644</v>
       </c>
       <c r="C62">
-        <v>120.3509844987926</v>
+        <v>120.3571402327323</v>
       </c>
       <c r="D62">
-        <v>117.3977863428515</v>
+        <v>117.4038740558657</v>
       </c>
       <c r="E62">
-        <v>123.3041826547336</v>
+        <v>123.310406409599</v>
       </c>
       <c r="F62">
         <v>119.9968895533664</v>
@@ -1637,13 +1637,13 @@
         <v>2645</v>
       </c>
       <c r="C63">
-        <v>120.0054502385152</v>
+        <v>119.9960097238841</v>
       </c>
       <c r="D63">
-        <v>117.0527794533152</v>
+        <v>117.0432702523179</v>
       </c>
       <c r="E63">
-        <v>122.9581210237153</v>
+        <v>122.9487491954503</v>
       </c>
       <c r="F63">
         <v>120.2483656280307</v>
@@ -1657,13 +1657,13 @@
         <v>2646</v>
       </c>
       <c r="C64">
-        <v>120.2410366772477</v>
+        <v>120.2474708817237</v>
       </c>
       <c r="D64">
-        <v>117.2889094904724</v>
+        <v>117.2952735287913</v>
       </c>
       <c r="E64">
-        <v>123.193163864023</v>
+        <v>123.1996682346562</v>
       </c>
       <c r="F64">
         <v>120.6020646592693</v>
@@ -1677,13 +1677,13 @@
         <v>2647</v>
       </c>
       <c r="C65">
-        <v>120.5916457297559</v>
+        <v>120.6011833761774</v>
       </c>
       <c r="D65">
-        <v>117.6400441698779</v>
+        <v>117.6495131080897</v>
       </c>
       <c r="E65">
-        <v>123.543247289634</v>
+        <v>123.5528536442651</v>
       </c>
       <c r="F65">
         <v>120.1534177312493</v>
@@ -1697,13 +1697,13 @@
         <v>2648</v>
       </c>
       <c r="C66">
-        <v>120.1643761745462</v>
+        <v>120.152533201875</v>
       </c>
       <c r="D66">
-        <v>117.2132845996644</v>
+        <v>117.20137092707</v>
       </c>
       <c r="E66">
-        <v>123.1154677494281</v>
+        <v>123.10369547668</v>
       </c>
       <c r="F66">
         <v>120.3164975287346</v>
@@ -1717,13 +1717,13 @@
         <v>2649</v>
       </c>
       <c r="C67">
-        <v>120.3115444928842</v>
+        <v>120.3156188963132</v>
       </c>
       <c r="D67">
-        <v>117.3610045520405</v>
+        <v>117.3650072296386</v>
       </c>
       <c r="E67">
-        <v>123.262084433728</v>
+        <v>123.2662305629879</v>
       </c>
       <c r="F67">
         <v>119.5991162257027</v>
@@ -1737,13 +1737,13 @@
         <v>2650</v>
       </c>
       <c r="C68">
-        <v>119.6177757115962</v>
+        <v>119.5982287965684</v>
       </c>
       <c r="D68">
-        <v>116.6676676868602</v>
+        <v>116.6480475158145</v>
       </c>
       <c r="E68">
-        <v>122.5678837363321</v>
+        <v>122.5484100773222</v>
       </c>
       <c r="F68">
         <v>119.4546074050564</v>
@@ -1757,13 +1757,13 @@
         <v>2651</v>
       </c>
       <c r="C69">
-        <v>119.4581778201586</v>
+        <v>119.4537252584166</v>
       </c>
       <c r="D69">
-        <v>116.5086196232014</v>
+        <v>116.5040954665366</v>
       </c>
       <c r="E69">
-        <v>122.4077360171157</v>
+        <v>122.4033550502966</v>
       </c>
       <c r="F69">
         <v>119.3092254070889</v>
@@ -1777,13 +1777,13 @@
         <v>2652</v>
       </c>
       <c r="C70">
-        <v>119.3124128158109</v>
+        <v>119.3083432828593</v>
       </c>
       <c r="D70">
-        <v>116.363405381352</v>
+        <v>116.3592645107725</v>
       </c>
       <c r="E70">
-        <v>122.2614202502698</v>
+        <v>122.2574220549461</v>
       </c>
       <c r="F70">
         <v>119.0078168151902</v>
@@ -1797,13 +1797,13 @@
         <v>2653</v>
       </c>
       <c r="C71">
-        <v>119.0151668370682</v>
+        <v>119.0069342276608</v>
       </c>
       <c r="D71">
-        <v>116.0666923692031</v>
+        <v>116.0583890839195</v>
       </c>
       <c r="E71">
-        <v>121.9636413049332</v>
+        <v>121.955479371402</v>
       </c>
       <c r="F71">
         <v>119.4232478249622</v>
@@ -1817,13 +1817,13 @@
         <v>2654</v>
       </c>
       <c r="C72">
-        <v>119.4113177861685</v>
+        <v>119.4223665909335</v>
       </c>
       <c r="D72">
-        <v>116.4633580628616</v>
+        <v>116.4743345201496</v>
       </c>
       <c r="E72">
-        <v>122.3592775094753</v>
+        <v>122.3703986617174</v>
       </c>
       <c r="F72">
         <v>119.285566918005</v>
@@ -1837,13 +1837,13 @@
         <v>2655</v>
       </c>
       <c r="C73">
-        <v>119.2881557789681</v>
+        <v>119.2846797378693</v>
       </c>
       <c r="D73">
-        <v>116.34074717564</v>
+        <v>116.3371981868609</v>
       </c>
       <c r="E73">
-        <v>122.2355643822961</v>
+        <v>122.2321612888776</v>
       </c>
       <c r="F73">
         <v>119.3367975917268</v>
@@ -1857,13 +1857,13 @@
         <v>2656</v>
       </c>
       <c r="C74">
-        <v>119.3346338420527</v>
+        <v>119.3359062205491</v>
       </c>
       <c r="D74">
-        <v>116.3877797896869</v>
+        <v>116.3889788595182</v>
       </c>
       <c r="E74">
-        <v>122.2814878944185</v>
+        <v>122.2828335815799</v>
       </c>
       <c r="F74">
         <v>119.3446695561048</v>
@@ -1877,13 +1877,13 @@
         <v>2657</v>
       </c>
       <c r="C75">
-        <v>119.3435602625735</v>
+        <v>119.3437845189516</v>
       </c>
       <c r="D75">
-        <v>116.3972607715793</v>
+        <v>116.397411864431</v>
       </c>
       <c r="E75">
-        <v>122.2898597535677</v>
+        <v>122.2901571734721</v>
       </c>
       <c r="F75">
         <v>119.0237750328911</v>
@@ -1897,13 +1897,13 @@
         <v>2658</v>
       </c>
       <c r="C76">
-        <v>119.0316855864923</v>
+        <v>119.0228832674612</v>
       </c>
       <c r="D76">
-        <v>116.0859152554022</v>
+        <v>116.0770396283703</v>
       </c>
       <c r="E76">
-        <v>121.9774559175823</v>
+        <v>121.9687269065521</v>
       </c>
       <c r="F76">
         <v>119.055659699403</v>
@@ -1917,13 +1917,13 @@
         <v>2659</v>
       </c>
       <c r="C77">
-        <v>119.0541646902361</v>
+        <v>119.0547773792995</v>
       </c>
       <c r="D77">
-        <v>116.1089481165228</v>
+        <v>116.1094876387669</v>
       </c>
       <c r="E77">
-        <v>121.9993812639494</v>
+        <v>122.000067119832</v>
       </c>
       <c r="F77">
         <v>119.2934556676613</v>
@@ -1937,13 +1937,13 @@
         <v>2660</v>
       </c>
       <c r="C78">
-        <v>119.2860772302088</v>
+        <v>119.2925725304809</v>
       </c>
       <c r="D78">
-        <v>116.3414004412042</v>
+        <v>116.3478225152711</v>
       </c>
       <c r="E78">
-        <v>122.2307540192134</v>
+        <v>122.2373225456906</v>
       </c>
       <c r="F78">
         <v>119.1550274320113</v>
@@ -1957,13 +1957,13 @@
         <v>2661</v>
       </c>
       <c r="C79">
-        <v>119.1577875532484</v>
+        <v>119.1541452242557</v>
       </c>
       <c r="D79">
-        <v>116.2136598382579</v>
+        <v>116.2099439374556</v>
       </c>
       <c r="E79">
-        <v>122.1019152682389</v>
+        <v>122.0983465110558</v>
       </c>
       <c r="F79">
         <v>119.4114774358593</v>
@@ -1977,13 +1977,13 @@
         <v>2662</v>
       </c>
       <c r="C80">
-        <v>119.4036639393314</v>
+        <v>119.4105699463296</v>
       </c>
       <c r="D80">
-        <v>116.4600735656383</v>
+        <v>116.4669050675122</v>
       </c>
       <c r="E80">
-        <v>122.3472543130245</v>
+        <v>122.354234825147</v>
       </c>
       <c r="F80">
         <v>119.2223635674483</v>
@@ -1997,13 +1997,13 @@
         <v>2663</v>
       </c>
       <c r="C81">
-        <v>119.2265413702937</v>
+        <v>119.2214792053561</v>
       </c>
       <c r="D81">
-        <v>116.2834956723933</v>
+        <v>116.2783587801913</v>
       </c>
       <c r="E81">
-        <v>122.1695870681941</v>
+        <v>122.164599630521</v>
       </c>
       <c r="F81">
         <v>119.9777310529354</v>
@@ -2017,13 +2017,13 @@
         <v>2664</v>
       </c>
       <c r="C82">
-        <v>119.9558996698801</v>
+        <v>119.9768524416888</v>
       </c>
       <c r="D82">
-        <v>117.0132682648305</v>
+        <v>117.0341445262551</v>
       </c>
       <c r="E82">
-        <v>122.8985310749296</v>
+        <v>122.9195603571225</v>
       </c>
       <c r="F82">
         <v>120.0389847432308</v>
@@ -2037,13 +2037,13 @@
         <v>2665</v>
       </c>
       <c r="C83">
-        <v>120.0358030871533</v>
+        <v>120.0381043141659</v>
       </c>
       <c r="D83">
-        <v>117.0937212982812</v>
+        <v>117.0959475829435</v>
       </c>
       <c r="E83">
-        <v>122.9778848760254</v>
+        <v>122.9802610453883</v>
       </c>
       <c r="F83">
         <v>119.4820135488691</v>
@@ -2057,13 +2057,13 @@
         <v>2666</v>
       </c>
       <c r="C84">
-        <v>119.4966607822435</v>
+        <v>119.4811038776281</v>
       </c>
       <c r="D84">
-        <v>116.5550564318602</v>
+        <v>116.5394226557997</v>
       </c>
       <c r="E84">
-        <v>122.4382651326267</v>
+        <v>122.4227850994564</v>
       </c>
       <c r="F84">
         <v>119.8277698225731</v>
@@ -2077,13 +2077,13 @@
         <v>2667</v>
       </c>
       <c r="C85">
-        <v>119.8175423978378</v>
+        <v>119.8268733643883</v>
       </c>
       <c r="D85">
-        <v>116.8764628260339</v>
+        <v>116.8857145471115</v>
       </c>
       <c r="E85">
-        <v>122.7586219696417</v>
+        <v>122.7680321816651</v>
       </c>
       <c r="F85">
         <v>119.8431934785375</v>
@@ -2097,13 +2097,13 @@
         <v>2668</v>
       </c>
       <c r="C86">
-        <v>119.841531798721</v>
+        <v>119.8422821492157</v>
       </c>
       <c r="D86">
-        <v>116.9010013469808</v>
+        <v>116.9016742447826</v>
       </c>
       <c r="E86">
-        <v>122.7820622504611</v>
+        <v>122.7828900536489</v>
       </c>
       <c r="F86">
         <v>119.261885127959</v>
@@ -2117,13 +2117,13 @@
         <v>2669</v>
       </c>
       <c r="C87">
-        <v>119.2775432093581</v>
+        <v>119.2610037854071</v>
       </c>
       <c r="D87">
-        <v>116.3374832451335</v>
+        <v>116.3208648129248</v>
       </c>
       <c r="E87">
-        <v>122.2176031735827</v>
+        <v>122.2011427578894</v>
       </c>
       <c r="F87">
         <v>118.9918479882352</v>
@@ -2137,13 +2137,13 @@
         <v>2670</v>
       </c>
       <c r="C88">
-        <v>118.9990142023365</v>
+        <v>118.9909553142073</v>
       </c>
       <c r="D88">
-        <v>116.0594848645692</v>
+        <v>116.0513490163645</v>
       </c>
       <c r="E88">
-        <v>121.9385435401038</v>
+        <v>121.9305616120501</v>
       </c>
       <c r="F88">
         <v>118.4629095472611</v>
@@ -2157,13 +2157,13 @@
         <v>2671</v>
       </c>
       <c r="C89">
-        <v>118.4768871919665</v>
+        <v>118.4620252080371</v>
       </c>
       <c r="D89">
-        <v>115.5378377495521</v>
+        <v>115.5229010958499</v>
       </c>
       <c r="E89">
-        <v>121.4159366343808</v>
+        <v>121.4011493202242</v>
       </c>
       <c r="F89">
         <v>118.3770223864653</v>
@@ -2177,13 +2177,13 @@
         <v>2672</v>
       </c>
       <c r="C90">
-        <v>118.3789248073148</v>
+        <v>118.3761340455524</v>
       </c>
       <c r="D90">
-        <v>115.4404228807365</v>
+        <v>115.4375581220115</v>
       </c>
       <c r="E90">
-        <v>121.3174267338932</v>
+        <v>121.3147099690934</v>
       </c>
       <c r="F90">
         <v>118.4506587801713</v>
@@ -2197,13 +2197,13 @@
         <v>2673</v>
       </c>
       <c r="C91">
-        <v>118.4478420626429</v>
+        <v>118.4497549144641</v>
       </c>
       <c r="D91">
-        <v>115.5098885504519</v>
+        <v>115.5117270995714</v>
       </c>
       <c r="E91">
-        <v>121.3857955748338</v>
+        <v>121.3877827293568</v>
       </c>
       <c r="F91">
         <v>118.0677441279172</v>
@@ -2217,13 +2217,13 @@
         <v>2674</v>
       </c>
       <c r="C92">
-        <v>118.0773829152534</v>
+        <v>118.0668604055911</v>
       </c>
       <c r="D92">
-        <v>115.1399435215057</v>
+        <v>115.1293466246619</v>
       </c>
       <c r="E92">
-        <v>121.014822309001</v>
+        <v>121.0043741865203</v>
       </c>
       <c r="F92">
         <v>118.3524265541658</v>
@@ -2237,13 +2237,13 @@
         <v>2675</v>
       </c>
       <c r="C93">
-        <v>118.3439460191748</v>
+        <v>118.3515389319809</v>
       </c>
       <c r="D93">
-        <v>115.4070373075422</v>
+        <v>115.414554301976</v>
       </c>
       <c r="E93">
-        <v>121.2808547308074</v>
+        <v>121.2885235619857</v>
       </c>
       <c r="F93">
         <v>120.0389847432308</v>
@@ -2257,13 +2257,13 @@
         <v>2676</v>
       </c>
       <c r="C94">
-        <v>119.992888452109</v>
+        <v>120.0381005675812</v>
       </c>
       <c r="D94">
-        <v>117.0558265941922</v>
+        <v>117.1009690833094</v>
       </c>
       <c r="E94">
-        <v>122.9299503100258</v>
+        <v>122.975232051853</v>
       </c>
       <c r="F94">
         <v>120.3580392155608</v>
@@ -2277,13 +2277,13 @@
         <v>2677</v>
       </c>
       <c r="C95">
-        <v>120.3480641337124</v>
+        <v>120.3571531074092</v>
       </c>
       <c r="D95">
-        <v>117.4115183609792</v>
+        <v>117.4205452577733</v>
       </c>
       <c r="E95">
-        <v>123.2846099064455</v>
+        <v>123.2937609570451</v>
       </c>
       <c r="F95">
         <v>120.8288530716886</v>
@@ -2297,13 +2297,13 @@
         <v>2678</v>
       </c>
       <c r="C96">
-        <v>120.816132434315</v>
+        <v>120.8279511215839</v>
       </c>
       <c r="D96">
-        <v>117.8800785383791</v>
+        <v>117.8918370266569</v>
       </c>
       <c r="E96">
-        <v>123.7521863302509</v>
+        <v>123.7640652165109</v>
       </c>
       <c r="F96">
         <v>121.2579792211696</v>
@@ -2317,13 +2317,13 @@
         <v>2679</v>
       </c>
       <c r="C97">
-        <v>121.2464774610227</v>
+        <v>121.257097044411</v>
       </c>
       <c r="D97">
-        <v>118.3109243823687</v>
+        <v>118.32148624448</v>
       </c>
       <c r="E97">
-        <v>124.1820305396767</v>
+        <v>124.192707844342</v>
       </c>
       <c r="F97">
         <v>121.8256774458818</v>
@@ -2337,13 +2337,13 @@
         <v>2680</v>
       </c>
       <c r="C98">
-        <v>121.8112300837689</v>
+        <v>121.8247741372611</v>
       </c>
       <c r="D98">
-        <v>118.8761428932021</v>
+        <v>118.8896318192985</v>
       </c>
       <c r="E98">
-        <v>124.7463172743356</v>
+        <v>124.7599164552237</v>
       </c>
       <c r="F98">
         <v>121.2288783002139</v>
@@ -2357,13 +2357,13 @@
         <v>2681</v>
       </c>
       <c r="C99">
-        <v>121.2422084178607</v>
+        <v>121.2279971341821</v>
       </c>
       <c r="D99">
-        <v>118.3075858939735</v>
+        <v>118.2933158991251</v>
       </c>
       <c r="E99">
-        <v>124.1768309417479</v>
+        <v>124.162678369239</v>
       </c>
       <c r="F99">
         <v>121.2106724533728</v>
@@ -2377,13 +2377,13 @@
         <v>2682</v>
       </c>
       <c r="C100">
-        <v>121.2106004437016</v>
+        <v>121.2097912545144</v>
       </c>
       <c r="D100">
-        <v>118.2765248236961</v>
+        <v>118.2756571010404</v>
       </c>
       <c r="E100">
-        <v>124.1446760637071</v>
+        <v>124.1439254079885</v>
       </c>
       <c r="F100">
         <v>121.0901693573964</v>
@@ -2397,13 +2397,13 @@
         <v>2683</v>
       </c>
       <c r="C101">
-        <v>121.0922567336578</v>
+        <v>121.0892763479948</v>
       </c>
       <c r="D101">
-        <v>118.1587243955375</v>
+        <v>118.1556853220862</v>
       </c>
       <c r="E101">
-        <v>124.0257890717781</v>
+        <v>124.0228673739034</v>
       </c>
       <c r="F101">
         <v>120.9948032467464</v>
@@ -2417,13 +2417,13 @@
         <v>2684</v>
       </c>
       <c r="C102">
-        <v>120.9963300156614</v>
+        <v>120.9939183885612</v>
       </c>
       <c r="D102">
-        <v>118.0633418940056</v>
+        <v>118.0608718681063</v>
       </c>
       <c r="E102">
-        <v>123.9293181373172</v>
+        <v>123.9269649090161</v>
       </c>
       <c r="F102">
         <v>120.8584386524041</v>
@@ -2437,13 +2437,13 @@
         <v>2685</v>
       </c>
       <c r="C103">
-        <v>120.8609417031058</v>
+        <v>120.8575227933252</v>
       </c>
       <c r="D103">
-        <v>117.9284951571548</v>
+        <v>117.9250174535338</v>
       </c>
       <c r="E103">
-        <v>123.7933882490567</v>
+        <v>123.7900281331167</v>
       </c>
       <c r="F103">
         <v>120.9617041505898</v>
@@ -2457,13 +2457,13 @@
         <v>2686</v>
       </c>
       <c r="C104">
-        <v>120.9584218380871</v>
+        <v>120.9608215683738</v>
       </c>
       <c r="D104">
-        <v>118.0265187538603</v>
+        <v>118.0288601415834</v>
       </c>
       <c r="E104">
-        <v>123.8903249223139</v>
+        <v>123.8927829951642</v>
       </c>
       <c r="F104">
         <v>121.6867797126373</v>
@@ -2477,13 +2477,13 @@
         <v>2687</v>
       </c>
       <c r="C105">
-        <v>121.6683962968608</v>
+        <v>121.6859010074903</v>
       </c>
       <c r="D105">
-        <v>118.736909590241</v>
+        <v>118.75435686961</v>
       </c>
       <c r="E105">
-        <v>124.5998830034806</v>
+        <v>124.6174451453705</v>
       </c>
       <c r="F105">
         <v>122.139704678425</v>
@@ -2497,13 +2497,13 @@
         <v>2688</v>
       </c>
       <c r="C106">
-        <v>122.1279262441068</v>
+        <v>122.1388200046704</v>
       </c>
       <c r="D106">
-        <v>119.1969308808008</v>
+        <v>119.2077709617361</v>
       </c>
       <c r="E106">
-        <v>125.0589216074128</v>
+        <v>125.0698690476047</v>
       </c>
       <c r="F106">
         <v>122.1607297128472</v>
@@ -2517,13 +2517,13 @@
         <v>2689</v>
       </c>
       <c r="C107">
-        <v>122.1591323224933</v>
+        <v>122.1598466647778</v>
       </c>
       <c r="D107">
-        <v>119.2286817562811</v>
+        <v>119.2293425959153</v>
       </c>
       <c r="E107">
-        <v>125.0895828887055</v>
+        <v>125.0903507336403</v>
       </c>
       <c r="F107">
         <v>121.8682557861984</v>
@@ -2537,13 +2537,13 @@
         <v>2690</v>
       </c>
       <c r="C108">
-        <v>121.8741750446846</v>
+        <v>121.8673776871556</v>
       </c>
       <c r="D108">
-        <v>118.9442484791482</v>
+        <v>118.9373977036476</v>
       </c>
       <c r="E108">
-        <v>124.804101610221</v>
+        <v>124.7973576706637</v>
       </c>
       <c r="F108">
         <v>122.0202179648293</v>
@@ -2557,13 +2557,13 @@
         <v>2691</v>
       </c>
       <c r="C109">
-        <v>122.0159734235558</v>
+        <v>122.0193406639224</v>
       </c>
       <c r="D109">
-        <v>119.0865862098824</v>
+        <v>119.0898994778101</v>
       </c>
       <c r="E109">
-        <v>124.9453606372291</v>
+        <v>124.9487818500346</v>
       </c>
       <c r="F109">
         <v>122.2795292760761</v>
@@ -2577,13 +2577,13 @@
         <v>2692</v>
       </c>
       <c r="C110">
-        <v>122.2725644777206</v>
+        <v>122.2786397272287</v>
       </c>
       <c r="D110">
-        <v>119.3437045346869</v>
+        <v>119.3497260068635</v>
       </c>
       <c r="E110">
-        <v>125.2014244207542</v>
+        <v>125.2075534475939</v>
       </c>
       <c r="F110">
         <v>122.1852359538749</v>
@@ -2597,13 +2597,13 @@
         <v>2693</v>
       </c>
       <c r="C111">
-        <v>122.1864355696358</v>
+        <v>122.1843592027177</v>
       </c>
       <c r="D111">
-        <v>119.2581176038752</v>
+        <v>119.2559874348785</v>
       </c>
       <c r="E111">
-        <v>125.1147535353964</v>
+        <v>125.1127309705568</v>
       </c>
       <c r="F111">
         <v>121.7581086215734</v>
@@ -2617,13 +2617,13 @@
         <v>2694</v>
       </c>
       <c r="C112">
-        <v>121.7672202382266</v>
+        <v>121.7572297513434</v>
       </c>
       <c r="D112">
-        <v>118.8394010448422</v>
+        <v>118.8293571918218</v>
       </c>
       <c r="E112">
-        <v>124.6950394316109</v>
+        <v>124.6851023108651</v>
       </c>
       <c r="F112">
         <v>121.6546131629332</v>
@@ -2637,13 +2637,13 @@
         <v>2695</v>
       </c>
       <c r="C113">
-        <v>121.6563758411136</v>
+        <v>121.6537350632023</v>
       </c>
       <c r="D113">
-        <v>118.7290968098704</v>
+        <v>118.7264031952538</v>
       </c>
       <c r="E113">
-        <v>124.5836548723568</v>
+        <v>124.5810669311508</v>
       </c>
       <c r="F113">
         <v>121.9249109988069</v>
@@ -2657,13 +2657,13 @@
         <v>2696</v>
       </c>
       <c r="C114">
-        <v>121.9178542011253</v>
+        <v>121.9239915150428</v>
       </c>
       <c r="D114">
-        <v>118.9911005967677</v>
+        <v>118.9971839677508</v>
       </c>
       <c r="E114">
-        <v>124.8446078054829</v>
+        <v>124.8507990623349</v>
       </c>
       <c r="F114">
         <v>122.244648452348</v>
@@ -2677,13 +2677,13 @@
         <v>2697</v>
       </c>
       <c r="C115">
-        <v>122.2362994430004</v>
+        <v>122.2437723177165</v>
       </c>
       <c r="D115">
-        <v>119.3100625364883</v>
+        <v>119.3174832541572</v>
       </c>
       <c r="E115">
-        <v>125.1625363495124</v>
+        <v>125.1700613812758</v>
       </c>
       <c r="F115">
         <v>122.0025967189656</v>
@@ -2697,13 +2697,13 @@
         <v>2698</v>
       </c>
       <c r="C116">
-        <v>122.0071694782104</v>
+        <v>122.00172073081</v>
       </c>
       <c r="D116">
-        <v>119.0814615513682</v>
+        <v>119.0759598414643</v>
       </c>
       <c r="E116">
-        <v>124.9328774050527</v>
+        <v>124.9274816201557</v>
       </c>
       <c r="F116">
         <v>121.8434274975115</v>
@@ -2717,13 +2717,13 @@
         <v>2699</v>
       </c>
       <c r="C117">
-        <v>121.8463650051935</v>
+        <v>121.8425451773971</v>
       </c>
       <c r="D117">
-        <v>118.9211925743123</v>
+        <v>118.917320112303</v>
       </c>
       <c r="E117">
-        <v>124.7715374360748</v>
+        <v>124.7677702424911</v>
       </c>
       <c r="F117">
         <v>121.3523165081025</v>
@@ -2737,13 +2737,13 @@
         <v>2700</v>
       </c>
       <c r="C118">
-        <v>121.3627729024663</v>
+        <v>121.3514352755501</v>
       </c>
       <c r="D118">
-        <v>118.4380828248877</v>
+        <v>118.42669346723</v>
       </c>
       <c r="E118">
-        <v>124.287462980045</v>
+        <v>124.2761770838702</v>
       </c>
       <c r="F118">
         <v>121.8930587097789</v>
@@ -2757,13 +2757,13 @@
         <v>2701</v>
       </c>
       <c r="C119">
-        <v>121.8797603761297</v>
+        <v>121.8921767587196</v>
       </c>
       <c r="D119">
-        <v>118.9555434930321</v>
+        <v>118.9679051371025</v>
       </c>
       <c r="E119">
-        <v>124.8039772592273</v>
+        <v>124.8164483803368</v>
       </c>
       <c r="F119">
         <v>121.3921181332934</v>
@@ -2777,13 +2777,13 @@
         <v>2702</v>
       </c>
       <c r="C120">
-        <v>121.4030434258942</v>
+        <v>121.3912376258144</v>
       </c>
       <c r="D120">
-        <v>118.4793098527823</v>
+        <v>118.4674463461682</v>
       </c>
       <c r="E120">
-        <v>124.3267769990062</v>
+        <v>124.3150289054605</v>
       </c>
       <c r="F120">
         <v>121.0168441863754</v>
@@ -2797,13 +2797,13 @@
         <v>2703</v>
       </c>
       <c r="C121">
-        <v>121.0251468564828</v>
+        <v>121.0158841101222</v>
       </c>
       <c r="D121">
-        <v>118.101917860563</v>
+        <v>118.0925981463104</v>
       </c>
       <c r="E121">
-        <v>123.9483758524026</v>
+        <v>123.939170073934</v>
       </c>
       <c r="F121">
         <v>121.355937540216</v>
@@ -2817,13 +2817,13 @@
         <v>2704</v>
       </c>
       <c r="C122">
-        <v>121.3471676943738</v>
+        <v>121.3550530098313</v>
       </c>
       <c r="D122">
-        <v>118.4244527598539</v>
+        <v>118.4322809766947</v>
       </c>
       <c r="E122">
-        <v>124.2698826288936</v>
+        <v>124.277825042968</v>
       </c>
       <c r="F122">
         <v>121.3957332235034</v>
@@ -2837,13 +2837,13 @@
         <v>2705</v>
       </c>
       <c r="C123">
-        <v>121.3937328694294</v>
+        <v>121.3948469898472</v>
       </c>
       <c r="D123">
-        <v>118.4715576639796</v>
+        <v>118.4726148322166</v>
       </c>
       <c r="E123">
-        <v>124.3159080748793</v>
+        <v>124.3170791474779</v>
       </c>
       <c r="F123">
         <v>121.4138005904697</v>
@@ -2857,13 +2857,13 @@
         <v>2706</v>
       </c>
       <c r="C124">
-        <v>121.4124809723411</v>
+        <v>121.4129225787081</v>
       </c>
       <c r="D124">
-        <v>118.4908456243894</v>
+        <v>118.4912304910831</v>
       </c>
       <c r="E124">
-        <v>124.3341163202928</v>
+        <v>124.3346146663332</v>
       </c>
       <c r="F124">
         <v>121.1851612537274</v>
@@ -2877,13 +2877,13 @@
         <v>2707</v>
       </c>
       <c r="C125">
-        <v>121.1897735905611</v>
+        <v>121.1842816390921</v>
       </c>
       <c r="D125">
-        <v>118.2686653830895</v>
+        <v>118.2631165960399</v>
       </c>
       <c r="E125">
-        <v>124.1108817980326</v>
+        <v>124.1054466821444</v>
       </c>
       <c r="F125">
         <v>121.9461226699208</v>
@@ -2897,13 +2897,13 @@
         <v>2708</v>
       </c>
       <c r="C126">
-        <v>121.926831945636</v>
+        <v>121.9452459117024</v>
       </c>
       <c r="D126">
-        <v>119.0061243049896</v>
+        <v>119.0244794783956</v>
       </c>
       <c r="E126">
-        <v>124.8475395862824</v>
+        <v>124.8660123450092</v>
       </c>
       <c r="F126">
         <v>121.7189036719178</v>
